--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H2">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J2">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>75.42291622529687</v>
+        <v>0.411950165896</v>
       </c>
       <c r="R2">
-        <v>678.8062460276719</v>
+        <v>3.707551493064</v>
       </c>
       <c r="S2">
-        <v>0.006309906552811153</v>
+        <v>6.340142672756376E-05</v>
       </c>
       <c r="T2">
-        <v>0.006309906552811153</v>
+        <v>6.340142672756376E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H3">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J3">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>74.33811421031021</v>
+        <v>10.093789813244</v>
       </c>
       <c r="R3">
-        <v>669.0430278927919</v>
+        <v>90.844108319196</v>
       </c>
       <c r="S3">
-        <v>0.006219151651178601</v>
+        <v>0.00155349051469828</v>
       </c>
       <c r="T3">
-        <v>0.006219151651178601</v>
+        <v>0.00155349051469828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.45491533333333</v>
+        <v>1.419591</v>
       </c>
       <c r="H4">
-        <v>31.364746</v>
+        <v>4.258773</v>
       </c>
       <c r="I4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="J4">
-        <v>0.0134573334963438</v>
+        <v>0.001848767113890483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>11.09576330857711</v>
+        <v>1.506606723133</v>
       </c>
       <c r="R4">
-        <v>99.86186977719399</v>
+        <v>13.559460508197</v>
       </c>
       <c r="S4">
-        <v>0.000928275292354047</v>
+        <v>0.0002318751724646395</v>
       </c>
       <c r="T4">
-        <v>0.000928275292354047</v>
+        <v>0.0002318751724646395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J5">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>5305.973405573456</v>
+        <v>213.4340539523778</v>
       </c>
       <c r="R5">
-        <v>47753.7606501611</v>
+        <v>1920.9064855714</v>
       </c>
       <c r="S5">
-        <v>0.4438995206822882</v>
+        <v>0.03284869057740551</v>
       </c>
       <c r="T5">
-        <v>0.4438995206822882</v>
+        <v>0.03284869057740551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J6">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>5229.657997340789</v>
@@ -818,10 +818,10 @@
         <v>47066.9219760671</v>
       </c>
       <c r="S6">
-        <v>0.437514947947798</v>
+        <v>0.8048735157259937</v>
       </c>
       <c r="T6">
-        <v>0.437514947947798</v>
+        <v>0.8048735157259937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="J7">
-        <v>0.9467182815928301</v>
+        <v>0.9578582377148513</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>780.5827191033694</v>
+        <v>780.5827191033695</v>
       </c>
       <c r="R7">
-        <v>7025.244471930325</v>
+        <v>7025.244471930326</v>
       </c>
       <c r="S7">
-        <v>0.06530381296274401</v>
+        <v>0.1201360314114521</v>
       </c>
       <c r="T7">
-        <v>0.06530381296274401</v>
+        <v>0.1201360314114521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J8">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>223.1995846479747</v>
+        <v>8.978256872125336</v>
       </c>
       <c r="R8">
-        <v>2008.796261831772</v>
+        <v>80.80431184912801</v>
       </c>
       <c r="S8">
-        <v>0.01867295236301955</v>
+        <v>0.001381803777117565</v>
       </c>
       <c r="T8">
-        <v>0.01867295236301955</v>
+        <v>0.001381803777117565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J9">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>219.9893221536547</v>
@@ -1004,10 +1004,10 @@
         <v>1979.903899382892</v>
       </c>
       <c r="S9">
-        <v>0.01840438072242367</v>
+        <v>0.03385758289242332</v>
       </c>
       <c r="T9">
-        <v>0.01840438072242367</v>
+        <v>0.03385758289242332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>92.817921</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="J10">
-        <v>0.03982438491082608</v>
+        <v>0.04029299517125823</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>32.83577307497433</v>
+        <v>32.83577307497434</v>
       </c>
       <c r="R10">
-        <v>295.521957674769</v>
+        <v>295.5219576747691</v>
       </c>
       <c r="S10">
-        <v>0.002747051825382863</v>
+        <v>0.005053608501717347</v>
       </c>
       <c r="T10">
-        <v>0.002747051825382863</v>
+        <v>0.005053608501717346</v>
       </c>
     </row>
   </sheetData>
